--- a/src/test/resources/ORFiles/Learningchain.xlsx
+++ b/src/test/resources/ORFiles/Learningchain.xlsx
@@ -179,13 +179,13 @@
     <t>……..</t>
   </si>
   <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>krishna@gmail.com</t>
-  </si>
-  <si>
-    <t>19B</t>
+    <t>Karthika</t>
+  </si>
+  <si>
+    <t>Karthika@gmail.com</t>
+  </si>
+  <si>
+    <t>19B2dfd</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,7 +784,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -988,7 +988,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="17">
-        <v>8791563333</v>
+        <v>9912908023</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>51</v>

--- a/src/test/resources/ORFiles/Learningchain.xlsx
+++ b/src/test/resources/ORFiles/Learningchain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="12500" windowHeight="6230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="12990" windowHeight="6230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,13 +179,13 @@
     <t>……..</t>
   </si>
   <si>
-    <t>Karthika</t>
-  </si>
-  <si>
-    <t>Karthika@gmail.com</t>
-  </si>
-  <si>
-    <t>19B2dfd</t>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Kiran@gmail.com</t>
+  </si>
+  <si>
+    <t>sdhgfjk</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -988,7 +988,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="17">
-        <v>9912908023</v>
+        <v>9912911023</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>51</v>
